--- a/temp/templateStudents.xlsx
+++ b/temp/templateStudents.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040B50F1-6309-4DD0-AFC8-FAB34D5D02FE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F761C1C-B2D5-4F65-BF8D-1C4B33F1A22E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="student" sheetId="1" r:id="rId1"/>
-    <sheet name="ProgramIDS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>DNI</t>
   </si>
@@ -37,30 +36,23 @@
     <t>Apellidos y Nombres</t>
   </si>
   <si>
-    <t>ID Programa</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Programa De Estudios</t>
-  </si>
-  <si>
-    <t>computacion</t>
-  </si>
-  <si>
-    <t>mecanico</t>
-  </si>
-  <si>
-    <t>Karolina</t>
+    <t>PAUL YOEL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -88,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,21 +397,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,161 +420,23 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>216516516</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2">
+        <v>165165165</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>16576522</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>6511016</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>16576523</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>6511017</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>16576524</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>6511018</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>16576525</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>6511019</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>16576526</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>6511020</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>16576527</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>6511021</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>16576528</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>6511022</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>16576529</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>6511023</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/temp/templateStudents.xlsx
+++ b/temp/templateStudents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F761C1C-B2D5-4F65-BF8D-1C4B33F1A22E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5018748C-7AAD-4154-ACDF-6C7BBDC7C28F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>DNI</t>
   </si>
@@ -36,14 +36,23 @@
     <t>Apellidos y Nombres</t>
   </si>
   <si>
-    <t>PAUL YOEL</t>
+    <t>Año Egreso</t>
+  </si>
+  <si>
+    <t>Año Ingreso</t>
+  </si>
+  <si>
+    <t>RAMIRES MIRANDA, Rosa</t>
+  </si>
+  <si>
+    <t>SOLORSANO MAMANI, Jose</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +62,14 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -80,9 +97,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,42 +417,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>216516516</v>
+        <v>12123232</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>165165165</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16655555</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>65165165</v>
+      </c>
+      <c r="D3">
+        <v>2015</v>
+      </c>
+      <c r="E3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
   </sheetData>

--- a/temp/templateStudents.xlsx
+++ b/temp/templateStudents.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5018748C-7AAD-4154-ACDF-6C7BBDC7C28F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FEF386-2FE6-47A3-ADC3-E3152A19B7A9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="student" sheetId="1" r:id="rId1"/>
+    <sheet name="ProgramIDS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>DNI</t>
   </si>
@@ -36,32 +37,339 @@
     <t>Apellidos y Nombres</t>
   </si>
   <si>
+    <t>ID Programa</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Programa De Estudios</t>
+  </si>
+  <si>
+    <t>Año Ingreso</t>
+  </si>
+  <si>
     <t>Año Egreso</t>
   </si>
   <si>
-    <t>Año Ingreso</t>
-  </si>
-  <si>
-    <t>RAMIRES MIRANDA, Rosa</t>
-  </si>
-  <si>
-    <t>SOLORSANO MAMANI, Jose</t>
+    <t>Computación E Informática</t>
+  </si>
+  <si>
+    <t>Enfermeria Tecnica</t>
+  </si>
+  <si>
+    <t>Mecanica Agricola</t>
+  </si>
+  <si>
+    <t>Construccion Civil</t>
+  </si>
+  <si>
+    <t>Contabilidad</t>
+  </si>
+  <si>
+    <t>Producción Agropecuaria</t>
+  </si>
+  <si>
+    <t>ACHAHUANCO RAMIREZ, Ali Guiller</t>
+  </si>
+  <si>
+    <t>AGUILAR NUÑONCA, Esmeralda</t>
+  </si>
+  <si>
+    <t>ARAPA PUCHO, Aldo Mario</t>
+  </si>
+  <si>
+    <t>CCASANI CCOLQQUE, Ruben</t>
+  </si>
+  <si>
+    <t>CCOPA HUANCA, Wendi Yesi</t>
+  </si>
+  <si>
+    <t>CHINO HUILLCA, Yoel Yon</t>
+  </si>
+  <si>
+    <t>CHOQUENAIRA HUILLCA, Soledad</t>
+  </si>
+  <si>
+    <t>CONDE CONDORI, Wilber Eloy</t>
+  </si>
+  <si>
+    <t>CONDORI MAMANI, Leonel</t>
+  </si>
+  <si>
+    <t>CRUZ RAMOS, Julio Eder</t>
+  </si>
+  <si>
+    <t>CUTIRE PALLARA, Vladimir</t>
+  </si>
+  <si>
+    <t>GUZMAN HUALLPA, Rosmery</t>
+  </si>
+  <si>
+    <t>HACHA KALLE, Victor Raul</t>
+  </si>
+  <si>
+    <t>HUAMAN LLOCLLA, LLOCLLA,Hector</t>
+  </si>
+  <si>
+    <t>HUAMANI CAHUANA, Jose Daniel</t>
+  </si>
+  <si>
+    <t>HUAÑAHUI HUAMANI, Melody Kerly</t>
+  </si>
+  <si>
+    <t>HUILLCA CAHUATA, Flor De Maria</t>
+  </si>
+  <si>
+    <t>HUILLCA CRUZ, Victor Raul</t>
+  </si>
+  <si>
+    <t>MAMANI QUISPE, Jhonar</t>
+  </si>
+  <si>
+    <t>MONZON HUAMAN, Midwar</t>
+  </si>
+  <si>
+    <t>MORIEL HUAQUISTO, Melany</t>
+  </si>
+  <si>
+    <t>NINA NINA, Edelmir</t>
+  </si>
+  <si>
+    <t>OLGADO CCANQQUERI, Sofia</t>
+  </si>
+  <si>
+    <t>PALLARA QUISPE, Justo Julian</t>
+  </si>
+  <si>
+    <t>PUMA CHOQQUE, Habraham</t>
+  </si>
+  <si>
+    <t>PUMA PACHAPUMA, Marleni Yaneth</t>
+  </si>
+  <si>
+    <t>PUMACCARI TACUSI, Jhon Denis</t>
+  </si>
+  <si>
+    <t>QUISPE CHISLLA, Jose Raul</t>
+  </si>
+  <si>
+    <t>QUISPE DIAZ, Karin</t>
+  </si>
+  <si>
+    <t>QUISPE MAMANI, Danitza Nayda</t>
+  </si>
+  <si>
+    <t>RAMOS TINTAYA, Perseo Orlando</t>
+  </si>
+  <si>
+    <t>RIMACHI AGUIRRE, Rogelio</t>
+  </si>
+  <si>
+    <t>ROJO CONDORI, Jose Luis</t>
+  </si>
+  <si>
+    <t>SAICO PACCA, Santos Miguel</t>
+  </si>
+  <si>
+    <t>SANCA QUISPE, Jaime</t>
+  </si>
+  <si>
+    <t>SONCCO LOPEZ, Hilda Jhudit</t>
+  </si>
+  <si>
+    <t>TTUPA SONCCO,  Paul Ronal</t>
+  </si>
+  <si>
+    <t>ZAMATA HANCCO, Fernando</t>
+  </si>
+  <si>
+    <t>CALLO CAHUANA, Luis Alfredo</t>
+  </si>
+  <si>
+    <t>CCANA CONDORI, Arturo</t>
+  </si>
+  <si>
+    <t>CCOLLANA CCOLQQUE, Guido</t>
+  </si>
+  <si>
+    <t>CCOYORI LLAQUI, Yesy</t>
+  </si>
+  <si>
+    <t>CCUNO LUNA, Pedro Luis</t>
+  </si>
+  <si>
+    <t>CHAMPI LOPEZ, Edison</t>
+  </si>
+  <si>
+    <t>CHAVEZ TUNQUI, Deysi</t>
+  </si>
+  <si>
+    <t>CHUCHULLO NINA, Vanessa Ariana</t>
+  </si>
+  <si>
+    <t>CONDORI MAMANI, Juvenal</t>
+  </si>
+  <si>
+    <t>ESPIRILLA HALANOCCA, Yaneth</t>
+  </si>
+  <si>
+    <t>FLORES TAPARA, Edison</t>
+  </si>
+  <si>
+    <t>FLOREZ MAMANI, Miguel Angel</t>
+  </si>
+  <si>
+    <t>GAMARRA PALOMINO, Gimena</t>
+  </si>
+  <si>
+    <t>HUAHUASONCCO MAITA, Nancy Stephany</t>
+  </si>
+  <si>
+    <t>HUAYHUA HUARANCA, Edwin</t>
+  </si>
+  <si>
+    <t>HUILLCA MOROCCO, Ana Francisca</t>
+  </si>
+  <si>
+    <t>MAMANI ALVAREZ, Anibal</t>
+  </si>
+  <si>
+    <t>MAMANI FUENTES, Pedro Javier</t>
+  </si>
+  <si>
+    <t>MAMANI MONTALVO, Soledad</t>
+  </si>
+  <si>
+    <t>MAMANI SUMIRE, Yonathan</t>
+  </si>
+  <si>
+    <t>MEZA CABRERA, Aldo Pele</t>
+  </si>
+  <si>
+    <t>NINACIBINCHA SURCO, Edgar</t>
+  </si>
+  <si>
+    <t>PALLARA QUISPE, Raul Lucio</t>
+  </si>
+  <si>
+    <t>PORTILLA ESPINOZA, Yozuque</t>
+  </si>
+  <si>
+    <t>QUISPE HUAMAN, Ricardo</t>
+  </si>
+  <si>
+    <t>QUISPE ILBERTO, Roger</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ TRUJILLO, Ricardo</t>
+  </si>
+  <si>
+    <t>SALAS RAMOS, Rocio</t>
+  </si>
+  <si>
+    <t>SUMIRE CHAMPI, Jhon Franklin</t>
+  </si>
+  <si>
+    <t>SUYCHIRE AITARA, Agusto</t>
+  </si>
+  <si>
+    <t>TACO CHUQUITAIPE, Miguelina</t>
+  </si>
+  <si>
+    <t>TAPIA SALAS, Vilma</t>
+  </si>
+  <si>
+    <t>TINCUSI TUNQUI, Wilian Leopoldo</t>
+  </si>
+  <si>
+    <t>APARICIO CCAHUANA, Yorlyn</t>
+  </si>
+  <si>
+    <t>CACERES MAMANI, Mariluz</t>
+  </si>
+  <si>
+    <t>CCASA VASQUEZ, Nancy</t>
+  </si>
+  <si>
+    <t>CCOYORI LLAQUI, Katy</t>
+  </si>
+  <si>
+    <t>CERECEDA ALVAREZ, Nahum</t>
+  </si>
+  <si>
+    <t>CHINO QUISPE, Carlos Marquinho</t>
+  </si>
+  <si>
+    <t>CHOQQUE HUANACO, Edilberto</t>
+  </si>
+  <si>
+    <t>CHOQUE QUISPE, Luis Gustavo</t>
+  </si>
+  <si>
+    <t>CHOQUENAIRA CHOQUEHUANCA, Vianed</t>
+  </si>
+  <si>
+    <t>CHUCHULLO CONDORI, Josue</t>
+  </si>
+  <si>
+    <t>CHUQUICHAMPI PHOCCO, Judith</t>
+  </si>
+  <si>
+    <t>CHUQUICHAMPI TTITO, Eloisa Esmeralda</t>
+  </si>
+  <si>
+    <t>CONDORI SOTO, Alvaro Franco</t>
+  </si>
+  <si>
+    <t>CORRALES MAMANI, Blanca Fiorela</t>
+  </si>
+  <si>
+    <t>CRUZ QUISPE, Roger</t>
+  </si>
+  <si>
+    <t>CURO CALLO, Ayde</t>
+  </si>
+  <si>
+    <t>HUILLCA QUISPE, Elizabeth</t>
+  </si>
+  <si>
+    <t>IMATA CCAHUATA, Wilber</t>
+  </si>
+  <si>
+    <t>LABRA CUTIPA, Adriel</t>
+  </si>
+  <si>
+    <t>LEON SOLANO, Roymil</t>
+  </si>
+  <si>
+    <t>LOPEZ QUISPE, Rosa Mariajose</t>
+  </si>
+  <si>
+    <t>MAMANI BENAVENTE, Lucia</t>
+  </si>
+  <si>
+    <t>MELO CHUQUICHAMPI, Adolfo</t>
+  </si>
+  <si>
+    <t>MONRROY VELASQUEZ, Yohan</t>
+  </si>
+  <si>
+    <t>PACCO SENCIA, Jhon Elvis</t>
+  </si>
+  <si>
+    <t>QUECAÑO MACHACCA, Shan Nolbert</t>
+  </si>
+  <si>
+    <t>QUISANI APAZA, Angelica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -97,10 +405,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -417,68 +724,1784 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>77057711</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>2016</v>
+      </c>
+      <c r="E2">
+        <v>2018</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>77689563</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>2016</v>
+      </c>
+      <c r="E3">
+        <v>2018</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>74056495</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>2016</v>
+      </c>
+      <c r="E4">
+        <v>2018</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>46936831</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>2016</v>
+      </c>
+      <c r="E5">
+        <v>2018</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>47760856</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>2016</v>
+      </c>
+      <c r="E6">
+        <v>2018</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>74502703</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>2016</v>
+      </c>
+      <c r="E7">
+        <v>2018</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>73600559</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>2016</v>
+      </c>
+      <c r="E8">
+        <v>2018</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>76012335</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>2016</v>
+      </c>
+      <c r="E9">
+        <v>2018</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>76229953</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>2016</v>
+      </c>
+      <c r="E10">
+        <v>2018</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>75566940</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>2016</v>
+      </c>
+      <c r="E11">
+        <v>2018</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>77037382</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>2016</v>
+      </c>
+      <c r="E12">
+        <v>2018</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>75422471</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>2016</v>
+      </c>
+      <c r="E13">
+        <v>2018</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>72105030</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>2016</v>
+      </c>
+      <c r="E14">
+        <v>2018</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>72657554</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>2016</v>
+      </c>
+      <c r="E15">
+        <v>2018</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>76393813</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>2016</v>
+      </c>
+      <c r="E16">
+        <v>2018</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>73021988</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>2016</v>
+      </c>
+      <c r="E17">
+        <v>2018</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>75227054</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>2016</v>
+      </c>
+      <c r="E18">
+        <v>2018</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>42555034</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>2016</v>
+      </c>
+      <c r="E19">
+        <v>2018</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>73670227</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>2016</v>
+      </c>
+      <c r="E20">
+        <v>2018</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>47997802</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <v>2016</v>
+      </c>
+      <c r="E21">
+        <v>2018</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>74946648</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>2016</v>
+      </c>
+      <c r="E22">
+        <v>2018</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>74959035</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23">
+        <v>2016</v>
+      </c>
+      <c r="E23">
+        <v>2018</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>75170237</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24">
+        <v>2016</v>
+      </c>
+      <c r="E24">
+        <v>2018</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>76913851</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25">
+        <v>2016</v>
+      </c>
+      <c r="E25">
+        <v>2018</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>72641184</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26">
+        <v>2016</v>
+      </c>
+      <c r="E26">
+        <v>2018</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>71558498</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27">
+        <v>2016</v>
+      </c>
+      <c r="E27">
+        <v>2018</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>74455178</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28">
+        <v>2016</v>
+      </c>
+      <c r="E28">
+        <v>2018</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>74222647</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29">
+        <v>2016</v>
+      </c>
+      <c r="E29">
+        <v>2018</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>74042174</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30">
+        <v>2016</v>
+      </c>
+      <c r="E30">
+        <v>2018</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>76172618</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31">
+        <v>2016</v>
+      </c>
+      <c r="E31">
+        <v>2018</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>47674657</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32">
+        <v>2016</v>
+      </c>
+      <c r="E32">
+        <v>2018</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>46803872</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33">
+        <v>2016</v>
+      </c>
+      <c r="E33">
+        <v>2018</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>76470330</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34">
+        <v>2016</v>
+      </c>
+      <c r="E34">
+        <v>2018</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>47261119</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35">
+        <v>2016</v>
+      </c>
+      <c r="E35">
+        <v>2018</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>75658288</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36">
+        <v>2016</v>
+      </c>
+      <c r="E36">
+        <v>2018</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>75848477</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37">
+        <v>2016</v>
+      </c>
+      <c r="E37">
+        <v>2018</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>70843368</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38">
+        <v>2016</v>
+      </c>
+      <c r="E38">
+        <v>2018</v>
+      </c>
+      <c r="F38">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>12123232</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>76067367</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39">
+        <v>2016</v>
+      </c>
+      <c r="E39">
+        <v>2018</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>75773157</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40">
+        <v>2016</v>
+      </c>
+      <c r="E40">
+        <v>2018</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>45265057</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41">
+        <v>2016</v>
+      </c>
+      <c r="E41">
+        <v>2018</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>76548042</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42">
+        <v>2016</v>
+      </c>
+      <c r="E42">
+        <v>2018</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>76218441</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43">
+        <v>2016</v>
+      </c>
+      <c r="E43">
+        <v>2018</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>73938144</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44">
+        <v>2016</v>
+      </c>
+      <c r="E44">
+        <v>2018</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>47698229</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45">
+        <v>2016</v>
+      </c>
+      <c r="E45">
+        <v>2018</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>71745746</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46">
+        <v>2016</v>
+      </c>
+      <c r="E46">
+        <v>2018</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>74056603</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47">
+        <v>2016</v>
+      </c>
+      <c r="E47">
+        <v>2018</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>76229954</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48">
+        <v>2016</v>
+      </c>
+      <c r="E48">
+        <v>2018</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>74765051</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49">
+        <v>2016</v>
+      </c>
+      <c r="E49">
+        <v>2018</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>73905858</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50">
+        <v>2016</v>
+      </c>
+      <c r="E50">
+        <v>2018</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>73950634</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51">
+        <v>2016</v>
+      </c>
+      <c r="E51">
+        <v>2018</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>75378952</v>
+      </c>
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52">
+        <v>2016</v>
+      </c>
+      <c r="E52">
+        <v>2018</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>61160934</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53">
+        <v>2016</v>
+      </c>
+      <c r="E53">
+        <v>2018</v>
+      </c>
+      <c r="F53">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>16655555</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>80060292</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54">
+        <v>2016</v>
+      </c>
+      <c r="E54">
+        <v>2018</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>77574733</v>
+      </c>
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55">
+        <v>2016</v>
+      </c>
+      <c r="E55">
+        <v>2018</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>73579643</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56">
+        <v>2016</v>
+      </c>
+      <c r="E56">
+        <v>2018</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>74951641</v>
+      </c>
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57">
+        <v>2016</v>
+      </c>
+      <c r="E57">
+        <v>2018</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>73853385</v>
+      </c>
+      <c r="B58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58">
+        <v>2016</v>
+      </c>
+      <c r="E58">
+        <v>2018</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>73210606</v>
+      </c>
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59">
+        <v>2016</v>
+      </c>
+      <c r="E59">
+        <v>2018</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>77037058</v>
+      </c>
+      <c r="B60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60">
+        <v>2016</v>
+      </c>
+      <c r="E60">
+        <v>2018</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>47437776</v>
+      </c>
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61">
+        <v>2016</v>
+      </c>
+      <c r="E61">
+        <v>2018</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>76915270</v>
+      </c>
+      <c r="B62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62">
+        <v>2016</v>
+      </c>
+      <c r="E62">
+        <v>2018</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>76434365</v>
+      </c>
+      <c r="B63" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63">
+        <v>2016</v>
+      </c>
+      <c r="E63">
+        <v>2018</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>47365129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64">
+        <v>2016</v>
+      </c>
+      <c r="E64">
+        <v>2018</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>71725897</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65">
+        <v>2016</v>
+      </c>
+      <c r="E65">
+        <v>2018</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>72530306</v>
+      </c>
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66">
+        <v>2016</v>
+      </c>
+      <c r="E66">
+        <v>2018</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>74042159</v>
+      </c>
+      <c r="B67" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67">
+        <v>2016</v>
+      </c>
+      <c r="E67">
+        <v>2018</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>74525688</v>
+      </c>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68">
+        <v>2016</v>
+      </c>
+      <c r="E68">
+        <v>2018</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>74948118</v>
+      </c>
+      <c r="B69" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69">
+        <v>2016</v>
+      </c>
+      <c r="E69">
+        <v>2018</v>
+      </c>
+      <c r="F69">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>65165165</v>
-      </c>
-      <c r="D3">
-        <v>2015</v>
-      </c>
-      <c r="E3">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>76404991</v>
+      </c>
+      <c r="B70" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70">
+        <v>2016</v>
+      </c>
+      <c r="E70">
+        <v>2018</v>
+      </c>
+      <c r="F70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>47131380</v>
+      </c>
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71">
+        <v>2016</v>
+      </c>
+      <c r="E71">
+        <v>2018</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>47185630</v>
+      </c>
+      <c r="B72" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72">
+        <v>2016</v>
+      </c>
+      <c r="E72">
+        <v>2018</v>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>76404070</v>
+      </c>
+      <c r="B73" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73">
+        <v>2016</v>
+      </c>
+      <c r="E73">
+        <v>2018</v>
+      </c>
+      <c r="F73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73602751</v>
+      </c>
+      <c r="B74" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74">
+        <v>2016</v>
+      </c>
+      <c r="E74">
+        <v>2018</v>
+      </c>
+      <c r="F74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>48399325</v>
+      </c>
+      <c r="B75" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75">
+        <v>2016</v>
+      </c>
+      <c r="E75">
+        <v>2018</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74759164</v>
+      </c>
+      <c r="B76" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76">
+        <v>2016</v>
+      </c>
+      <c r="E76">
+        <v>2018</v>
+      </c>
+      <c r="F76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>48066633</v>
+      </c>
+      <c r="B77" t="s">
+        <v>89</v>
+      </c>
+      <c r="D77">
+        <v>2016</v>
+      </c>
+      <c r="E77">
+        <v>2018</v>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>75754701</v>
+      </c>
+      <c r="B78" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78">
+        <v>2016</v>
+      </c>
+      <c r="E78">
+        <v>2018</v>
+      </c>
+      <c r="F78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>76762969</v>
+      </c>
+      <c r="B79" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79">
+        <v>2016</v>
+      </c>
+      <c r="E79">
+        <v>2018</v>
+      </c>
+      <c r="F79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>46521726</v>
+      </c>
+      <c r="B80" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80">
+        <v>2016</v>
+      </c>
+      <c r="E80">
+        <v>2018</v>
+      </c>
+      <c r="F80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>74054987</v>
+      </c>
+      <c r="B81" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81">
+        <v>2016</v>
+      </c>
+      <c r="E81">
+        <v>2018</v>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>76368133</v>
+      </c>
+      <c r="B82" t="s">
+        <v>94</v>
+      </c>
+      <c r="D82">
+        <v>2016</v>
+      </c>
+      <c r="E82">
+        <v>2018</v>
+      </c>
+      <c r="F82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>71731029</v>
+      </c>
+      <c r="B83" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83">
+        <v>2016</v>
+      </c>
+      <c r="E83">
+        <v>2018</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>76094406</v>
+      </c>
+      <c r="B84" t="s">
+        <v>96</v>
+      </c>
+      <c r="D84">
+        <v>2016</v>
+      </c>
+      <c r="E84">
+        <v>2018</v>
+      </c>
+      <c r="F84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>75937492</v>
+      </c>
+      <c r="B85" t="s">
+        <v>97</v>
+      </c>
+      <c r="D85">
+        <v>2016</v>
+      </c>
+      <c r="E85">
+        <v>2018</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>76542791</v>
+      </c>
+      <c r="B86" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86">
+        <v>2016</v>
+      </c>
+      <c r="E86">
+        <v>2018</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>71133430</v>
+      </c>
+      <c r="B87" t="s">
+        <v>99</v>
+      </c>
+      <c r="D87">
+        <v>2016</v>
+      </c>
+      <c r="E87">
+        <v>2018</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>48325156</v>
+      </c>
+      <c r="B88" t="s">
+        <v>100</v>
+      </c>
+      <c r="D88">
+        <v>2016</v>
+      </c>
+      <c r="E88">
+        <v>2018</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>73100432</v>
+      </c>
+      <c r="B89" t="s">
+        <v>101</v>
+      </c>
+      <c r="D89">
+        <v>2016</v>
+      </c>
+      <c r="E89">
+        <v>2018</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>73529533</v>
+      </c>
+      <c r="B90" t="s">
+        <v>102</v>
+      </c>
+      <c r="D90">
+        <v>2016</v>
+      </c>
+      <c r="E90">
+        <v>2018</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>44195215</v>
+      </c>
+      <c r="B91" t="s">
+        <v>103</v>
+      </c>
+      <c r="D91">
+        <v>2016</v>
+      </c>
+      <c r="E91">
+        <v>2018</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>72405260</v>
+      </c>
+      <c r="B92" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92">
+        <v>2016</v>
+      </c>
+      <c r="E92">
+        <v>2018</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>74276491</v>
+      </c>
+      <c r="B93" t="s">
+        <v>105</v>
+      </c>
+      <c r="D93">
+        <v>2016</v>
+      </c>
+      <c r="E93">
+        <v>2018</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>47868074</v>
+      </c>
+      <c r="B94" t="s">
+        <v>106</v>
+      </c>
+      <c r="D94">
+        <v>2016</v>
+      </c>
+      <c r="E94">
+        <v>2018</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>48101981</v>
+      </c>
+      <c r="B95" t="s">
+        <v>107</v>
+      </c>
+      <c r="D95">
+        <v>2016</v>
+      </c>
+      <c r="E95">
+        <v>2018</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>70600087</v>
+      </c>
+      <c r="B96" t="s">
+        <v>108</v>
+      </c>
+      <c r="D96">
+        <v>2016</v>
+      </c>
+      <c r="E96">
+        <v>2018</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>76008524</v>
+      </c>
+      <c r="B97" t="s">
+        <v>109</v>
+      </c>
+      <c r="D97">
+        <v>2016</v>
+      </c>
+      <c r="E97">
+        <v>2018</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>74092614</v>
+      </c>
+      <c r="B98" t="s">
+        <v>110</v>
+      </c>
+      <c r="D98">
+        <v>2016</v>
+      </c>
+      <c r="E98">
+        <v>2018</v>
+      </c>
+      <c r="F98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>76580004</v>
+      </c>
+      <c r="B99" t="s">
+        <v>111</v>
+      </c>
+      <c r="D99">
+        <v>2016</v>
+      </c>
+      <c r="E99">
+        <v>2018</v>
+      </c>
+      <c r="F99">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/temp/templateStudents.xlsx
+++ b/temp/templateStudents.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FEF386-2FE6-47A3-ADC3-E3152A19B7A9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C0ED77-2E1A-46F1-950A-565F4DE9E80B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -726,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
       <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
@@ -944,7 +944,7 @@
         <v>2018</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -961,7 +961,7 @@
         <v>2018</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -978,7 +978,7 @@
         <v>2018</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -995,7 +995,7 @@
         <v>2018</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1012,7 +1012,7 @@
         <v>2018</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1029,7 +1029,7 @@
         <v>2018</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1046,7 +1046,7 @@
         <v>2018</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1063,7 +1063,7 @@
         <v>2018</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1080,7 +1080,7 @@
         <v>2018</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1097,7 +1097,7 @@
         <v>2018</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1114,7 +1114,7 @@
         <v>2018</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1131,7 +1131,7 @@
         <v>2018</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1148,7 +1148,7 @@
         <v>2018</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1165,7 +1165,7 @@
         <v>2018</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1182,7 +1182,7 @@
         <v>2018</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1199,7 +1199,7 @@
         <v>2018</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1216,7 +1216,7 @@
         <v>2018</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1233,7 +1233,7 @@
         <v>2018</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1250,7 +1250,7 @@
         <v>2018</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1267,7 +1267,7 @@
         <v>2018</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1284,7 +1284,7 @@
         <v>2018</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1301,7 +1301,7 @@
         <v>2018</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1318,7 +1318,7 @@
         <v>2018</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1335,7 +1335,7 @@
         <v>2018</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1352,7 +1352,7 @@
         <v>2018</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1369,7 +1369,7 @@
         <v>2018</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1386,7 +1386,7 @@
         <v>2018</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1403,7 +1403,7 @@
         <v>2018</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1420,7 +1420,7 @@
         <v>2018</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
         <v>2018</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1454,7 +1454,7 @@
         <v>2018</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1471,7 +1471,7 @@
         <v>2018</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1488,7 +1488,7 @@
         <v>2018</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1505,7 +1505,7 @@
         <v>2018</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1522,7 +1522,7 @@
         <v>2018</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1539,7 +1539,7 @@
         <v>2018</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1556,7 +1556,7 @@
         <v>2018</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>2018</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1590,7 +1590,7 @@
         <v>2018</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1607,7 +1607,7 @@
         <v>2018</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1624,7 +1624,7 @@
         <v>2018</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1641,7 +1641,7 @@
         <v>2018</v>
       </c>
       <c r="F53">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1658,7 +1658,7 @@
         <v>2018</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1675,7 +1675,7 @@
         <v>2018</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1692,7 +1692,7 @@
         <v>2018</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1709,7 +1709,7 @@
         <v>2018</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1726,7 +1726,7 @@
         <v>2018</v>
       </c>
       <c r="F58">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1743,7 +1743,7 @@
         <v>2018</v>
       </c>
       <c r="F59">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1760,7 +1760,7 @@
         <v>2018</v>
       </c>
       <c r="F60">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1777,7 +1777,7 @@
         <v>2018</v>
       </c>
       <c r="F61">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1794,7 +1794,7 @@
         <v>2018</v>
       </c>
       <c r="F62">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1811,7 +1811,7 @@
         <v>2018</v>
       </c>
       <c r="F63">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1828,7 +1828,7 @@
         <v>2018</v>
       </c>
       <c r="F64">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1845,7 +1845,7 @@
         <v>2018</v>
       </c>
       <c r="F65">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1862,7 +1862,7 @@
         <v>2018</v>
       </c>
       <c r="F66">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1879,7 +1879,7 @@
         <v>2018</v>
       </c>
       <c r="F67">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1896,7 +1896,7 @@
         <v>2018</v>
       </c>
       <c r="F68">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1913,7 +1913,7 @@
         <v>2018</v>
       </c>
       <c r="F69">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1930,7 +1930,7 @@
         <v>2018</v>
       </c>
       <c r="F70">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1947,7 +1947,7 @@
         <v>2018</v>
       </c>
       <c r="F71">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -1964,7 +1964,7 @@
         <v>2018</v>
       </c>
       <c r="F72">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -1981,7 +1981,7 @@
         <v>2018</v>
       </c>
       <c r="F73">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -1998,7 +1998,7 @@
         <v>2018</v>
       </c>
       <c r="F74">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2015,7 +2015,7 @@
         <v>2018</v>
       </c>
       <c r="F75">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2032,7 +2032,7 @@
         <v>2018</v>
       </c>
       <c r="F76">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2049,7 +2049,7 @@
         <v>2018</v>
       </c>
       <c r="F77">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2066,7 +2066,7 @@
         <v>2018</v>
       </c>
       <c r="F78">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2083,7 +2083,7 @@
         <v>2018</v>
       </c>
       <c r="F79">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2100,7 +2100,7 @@
         <v>2018</v>
       </c>
       <c r="F80">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2117,7 +2117,7 @@
         <v>2018</v>
       </c>
       <c r="F81">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2134,7 +2134,7 @@
         <v>2018</v>
       </c>
       <c r="F82">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2151,7 +2151,7 @@
         <v>2018</v>
       </c>
       <c r="F83">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2168,7 +2168,7 @@
         <v>2018</v>
       </c>
       <c r="F84">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2185,7 +2185,7 @@
         <v>2018</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2202,7 +2202,7 @@
         <v>2018</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2219,7 +2219,7 @@
         <v>2018</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2236,7 +2236,7 @@
         <v>2018</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2253,7 +2253,7 @@
         <v>2018</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2270,7 +2270,7 @@
         <v>2018</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2287,7 +2287,7 @@
         <v>2018</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2304,7 +2304,7 @@
         <v>2018</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2321,7 +2321,7 @@
         <v>2018</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2338,7 +2338,7 @@
         <v>2018</v>
       </c>
       <c r="F94">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2355,7 +2355,7 @@
         <v>2018</v>
       </c>
       <c r="F95">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2372,7 +2372,7 @@
         <v>2018</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2389,7 +2389,7 @@
         <v>2018</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">

--- a/temp/templateStudents.xlsx
+++ b/temp/templateStudents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B65687-0BFE-4380-BDE1-0FA159DE79BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BBD2D3-8CD6-479F-B6B1-E06AB5BFC0FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="126">
   <si>
     <t>DNI</t>
   </si>
@@ -189,41 +189,318 @@
     <t>Trabaja:</t>
   </si>
   <si>
-    <t>Computación E Informática</t>
-  </si>
-  <si>
     <t>Fecha de nacimiento:</t>
   </si>
   <si>
-    <t>MAMANI MAMANI, Jose</t>
-  </si>
-  <si>
-    <t>Hola</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no lo se</t>
+    <t>computacionifon</t>
+  </si>
+  <si>
+    <t>mecanicai</t>
+  </si>
+  <si>
+    <t>Agropecuaria</t>
+  </si>
+  <si>
+    <t>ACHAHUANCO RAMIREZ, Ali Guiller</t>
+  </si>
+  <si>
+    <t>AGUILAR NUÑONCA, Esmeralda</t>
+  </si>
+  <si>
+    <t>ARAPA PUCHO, Aldo Mario</t>
+  </si>
+  <si>
+    <t>CCASANI CCOLQQUE, Ruben</t>
+  </si>
+  <si>
+    <t>CCOPA HUANCA, Wendi Yesi</t>
+  </si>
+  <si>
+    <t>CHINO HUILLCA, Yoel Yon</t>
+  </si>
+  <si>
+    <t>CHOQUENAIRA HUILLCA, Soledad</t>
+  </si>
+  <si>
+    <t>CONDE CONDORI, Wilber Eloy</t>
+  </si>
+  <si>
+    <t>CONDORI MAMANI, Leonel</t>
+  </si>
+  <si>
+    <t>CRUZ RAMOS, Julio Eder</t>
+  </si>
+  <si>
+    <t>CUTIRE PALLARA, Vladimir</t>
+  </si>
+  <si>
+    <t>GUZMAN HUALLPA, Rosmery</t>
+  </si>
+  <si>
+    <t>HACHA KALLE, Victor Raul</t>
+  </si>
+  <si>
+    <t>HUAMAN LLOCLLA, LLOCLLA,Hector</t>
+  </si>
+  <si>
+    <t>HUAMANI CAHUANA, Jose Daniel</t>
+  </si>
+  <si>
+    <t>HUAÑAHUI HUAMANI, Melody Kerly</t>
+  </si>
+  <si>
+    <t>HUILLCA CAHUATA, Flor De Maria</t>
+  </si>
+  <si>
+    <t>HUILLCA CRUZ, Victor Raul</t>
+  </si>
+  <si>
+    <t>MAMANI QUISPE, Jhonar</t>
+  </si>
+  <si>
+    <t>MONZON HUAMAN, Midwar</t>
+  </si>
+  <si>
+    <t>MORIEL HUAQUISTO, Melany</t>
+  </si>
+  <si>
+    <t>NINA NINA, Edelmir</t>
+  </si>
+  <si>
+    <t>OLGADO CCANQQUERI, Sofia</t>
+  </si>
+  <si>
+    <t>PALLARA QUISPE, Justo Julian</t>
+  </si>
+  <si>
+    <t>PUMA CHOQQUE, Habraham</t>
+  </si>
+  <si>
+    <t>PUMA PACHAPUMA, Marleni Yaneth</t>
+  </si>
+  <si>
+    <t>PUMACCARI TACUSI, Jhon Denis</t>
+  </si>
+  <si>
+    <t>QUISPE CHISLLA, Jose Raul</t>
+  </si>
+  <si>
+    <t>QUISPE DIAZ, Karin</t>
+  </si>
+  <si>
+    <t>QUISPE MAMANI, Danitza Nayda</t>
+  </si>
+  <si>
+    <t>RAMOS TINTAYA, Perseo Orlando</t>
+  </si>
+  <si>
+    <t>RIMACHI AGUIRRE, Rogelio</t>
+  </si>
+  <si>
+    <t>ROJO CONDORI, Jose Luis</t>
+  </si>
+  <si>
+    <t>SAICO PACCA, Santos Miguel</t>
+  </si>
+  <si>
+    <t>SANCA QUISPE, Jaime</t>
+  </si>
+  <si>
+    <t>SONCCO LOPEZ, Hilda Jhudit</t>
+  </si>
+  <si>
+    <t>TTUPA SONCCO,  Paul Ronal</t>
+  </si>
+  <si>
+    <t>ZAMATA HANCCO, Fernando</t>
+  </si>
+  <si>
+    <t>CALLO CAHUANA, Luis Alfredo</t>
+  </si>
+  <si>
+    <t>CCANA CONDORI, Arturo</t>
+  </si>
+  <si>
+    <t>CCOLLANA CCOLQQUE, Guido</t>
+  </si>
+  <si>
+    <t>CCOYORI LLAQUI, Yesy</t>
+  </si>
+  <si>
+    <t>CCUNO LUNA, Pedro Luis</t>
+  </si>
+  <si>
+    <t>CHAMPI LOPEZ, Edison</t>
+  </si>
+  <si>
+    <t>CHAVEZ TUNQUI, Deysi</t>
+  </si>
+  <si>
+    <t>CHUCHULLO NINA, Vanessa Ariana</t>
+  </si>
+  <si>
+    <t>CONDORI MAMANI, Juvenal</t>
+  </si>
+  <si>
+    <t>ESPIRILLA HALANOCCA, Yaneth</t>
+  </si>
+  <si>
+    <t>FLORES TAPARA, Edison</t>
+  </si>
+  <si>
+    <t>FLOREZ MAMANI, Miguel Angel</t>
+  </si>
+  <si>
+    <t>GAMARRA PALOMINO, Gimena</t>
+  </si>
+  <si>
+    <t>HUAHUASONCCO MAITA, Nancy Stephany</t>
+  </si>
+  <si>
+    <t>HUAYHUA HUARANCA, Edwin</t>
+  </si>
+  <si>
+    <t>HUILLCA MOROCCO, Ana Francisca</t>
+  </si>
+  <si>
+    <t>MAMANI ALVAREZ, Anibal</t>
+  </si>
+  <si>
+    <t>MAMANI FUENTES, Pedro Javier</t>
+  </si>
+  <si>
+    <t>MAMANI MONTALVO, Soledad</t>
+  </si>
+  <si>
+    <t>MAMANI SUMIRE, Yonathan</t>
+  </si>
+  <si>
+    <t>MEZA CABRERA, Aldo Pele</t>
+  </si>
+  <si>
+    <t>NINACIBINCHA SURCO, Edgar</t>
+  </si>
+  <si>
+    <t>PALLARA QUISPE, Raul Lucio</t>
+  </si>
+  <si>
+    <t>PORTILLA ESPINOZA, Yozuque</t>
+  </si>
+  <si>
+    <t>QUISPE HUAMAN, Ricardo</t>
+  </si>
+  <si>
+    <t>QUISPE ILBERTO, Roger</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ TRUJILLO, Ricardo</t>
+  </si>
+  <si>
+    <t>SALAS RAMOS, Rocio</t>
+  </si>
+  <si>
+    <t>SUMIRE CHAMPI, Jhon Franklin</t>
+  </si>
+  <si>
+    <t>SUYCHIRE AITARA, Agusto</t>
+  </si>
+  <si>
+    <t>TACO CHUQUITAIPE, Miguelina</t>
+  </si>
+  <si>
+    <t>TAPIA SALAS, Vilma</t>
+  </si>
+  <si>
+    <t>TINCUSI TUNQUI, Wilian Leopoldo</t>
+  </si>
+  <si>
+    <t>APARICIO CCAHUANA, Yorlyn</t>
+  </si>
+  <si>
+    <t>CACERES MAMANI, Mariluz</t>
+  </si>
+  <si>
+    <t>CCASA VASQUEZ, Nancy</t>
+  </si>
+  <si>
+    <t>CCOYORI LLAQUI, Katy</t>
+  </si>
+  <si>
+    <t>CERECEDA ALVAREZ, Nahum</t>
+  </si>
+  <si>
+    <t>CHINO QUISPE, Carlos Marquinho</t>
+  </si>
+  <si>
+    <t>CHOQQUE HUANACO, Edilberto</t>
+  </si>
+  <si>
+    <t>CHOQUE QUISPE, Luis Gustavo</t>
+  </si>
+  <si>
+    <t>CHOQUENAIRA CHOQUEHUANCA, Vianed</t>
+  </si>
+  <si>
+    <t>CHUCHULLO CONDORI, Josue</t>
+  </si>
+  <si>
+    <t>CHUQUICHAMPI PHOCCO, Judith</t>
+  </si>
+  <si>
+    <t>CHUQUICHAMPI TTITO, Eloisa Esmeralda</t>
+  </si>
+  <si>
+    <t>CONDORI SOTO, Alvaro Franco</t>
+  </si>
+  <si>
+    <t>CORRALES MAMANI, Blanca Fiorela</t>
+  </si>
+  <si>
+    <t>CRUZ QUISPE, Roger</t>
+  </si>
+  <si>
+    <t>CURO CALLO, Ayde</t>
+  </si>
+  <si>
+    <t>HUILLCA QUISPE, Elizabeth</t>
+  </si>
+  <si>
+    <t>IMATA CCAHUATA, Wilber</t>
+  </si>
+  <si>
+    <t>LABRA CUTIPA, Adriel</t>
+  </si>
+  <si>
+    <t>LEON SOLANO, Roymil</t>
+  </si>
+  <si>
+    <t>LOPEZ QUISPE, Rosa Mariajose</t>
+  </si>
+  <si>
+    <t>MAMANI BENAVENTE, Lucia</t>
+  </si>
+  <si>
+    <t>MELO CHUQUICHAMPI, Adolfo</t>
+  </si>
+  <si>
+    <t>MONRROY VELASQUEZ, Yohan</t>
+  </si>
+  <si>
+    <t>PACCO SENCIA, Jhon Elvis</t>
+  </si>
+  <si>
+    <t>QUECAÑO MACHACCA, Shan Nolbert</t>
+  </si>
+  <si>
+    <t>QUISANI APAZA, Angelica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -286,20 +563,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -619,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,70 +917,70 @@
     <col min="16" max="16" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="8" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
@@ -766,51 +1042,1079 @@
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
-        <v>85675755</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3">
-        <v>999858654</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="B6">
+        <v>77057711</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>77689563</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="3" t="s">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>74056495</v>
+      </c>
+      <c r="C8" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>46936831</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>47760856</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>74502703</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C12" s="5"/>
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>73600559</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>76012335</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>76229953</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>75566940</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>77037382</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>75422471</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>72105030</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>72657554</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>76393813</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>73021988</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>75227054</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>42555034</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>73670227</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>47997802</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>74946648</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>74959035</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>75170237</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>76913851</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>72641184</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>71558498</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>74455178</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>74222647</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>74042174</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>76172618</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>47674657</v>
+      </c>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>46803872</v>
+      </c>
+      <c r="C37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>76470330</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>47261119</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>75658288</v>
+      </c>
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>75848477</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>70843368</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>76067367</v>
+      </c>
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>75773157</v>
+      </c>
+      <c r="C44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>45265057</v>
+      </c>
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>76548042</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>76218441</v>
+      </c>
+      <c r="C47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>73938144</v>
+      </c>
+      <c r="C48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>47698229</v>
+      </c>
+      <c r="C49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>71745746</v>
+      </c>
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>74056603</v>
+      </c>
+      <c r="C51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>76229954</v>
+      </c>
+      <c r="C52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>74765051</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>73905858</v>
+      </c>
+      <c r="C54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>73950634</v>
+      </c>
+      <c r="C55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>75378952</v>
+      </c>
+      <c r="C56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>61160934</v>
+      </c>
+      <c r="C57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>80060292</v>
+      </c>
+      <c r="C58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>77574733</v>
+      </c>
+      <c r="C59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>73579643</v>
+      </c>
+      <c r="C60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>74951641</v>
+      </c>
+      <c r="C61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>73853385</v>
+      </c>
+      <c r="C62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>73210606</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>77037058</v>
+      </c>
+      <c r="C64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>47437776</v>
+      </c>
+      <c r="C65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>76915270</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>76434365</v>
+      </c>
+      <c r="C67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>47365129</v>
+      </c>
+      <c r="C68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>71725897</v>
+      </c>
+      <c r="C69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>72530306</v>
+      </c>
+      <c r="C70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>74042159</v>
+      </c>
+      <c r="C71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>4</v>
+      </c>
+      <c r="B72">
+        <v>74525688</v>
+      </c>
+      <c r="C72" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <v>74948118</v>
+      </c>
+      <c r="C73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>4</v>
+      </c>
+      <c r="B74">
+        <v>76404991</v>
+      </c>
+      <c r="C74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <v>47131380</v>
+      </c>
+      <c r="C75" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>4</v>
+      </c>
+      <c r="B76">
+        <v>47185630</v>
+      </c>
+      <c r="C76" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>76404070</v>
+      </c>
+      <c r="C77" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>4</v>
+      </c>
+      <c r="B78">
+        <v>73602751</v>
+      </c>
+      <c r="C78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>4</v>
+      </c>
+      <c r="B79">
+        <v>48399325</v>
+      </c>
+      <c r="C79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>4</v>
+      </c>
+      <c r="B80">
+        <v>74759164</v>
+      </c>
+      <c r="C80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>4</v>
+      </c>
+      <c r="B81">
+        <v>48066633</v>
+      </c>
+      <c r="C81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>4</v>
+      </c>
+      <c r="B82">
+        <v>75754701</v>
+      </c>
+      <c r="C82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>4</v>
+      </c>
+      <c r="B83">
+        <v>76762969</v>
+      </c>
+      <c r="C83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>4</v>
+      </c>
+      <c r="B84">
+        <v>46521726</v>
+      </c>
+      <c r="C84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>4</v>
+      </c>
+      <c r="B85">
+        <v>74054987</v>
+      </c>
+      <c r="C85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <v>76368133</v>
+      </c>
+      <c r="C86" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>4</v>
+      </c>
+      <c r="B87">
+        <v>71731029</v>
+      </c>
+      <c r="C87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>3</v>
+      </c>
+      <c r="B88">
+        <v>76094406</v>
+      </c>
+      <c r="C88" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>3</v>
+      </c>
+      <c r="B89">
+        <v>75937492</v>
+      </c>
+      <c r="C89" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>3</v>
+      </c>
+      <c r="B90">
+        <v>76542791</v>
+      </c>
+      <c r="C90" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>71133430</v>
+      </c>
+      <c r="C91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>3</v>
+      </c>
+      <c r="B92">
+        <v>48325156</v>
+      </c>
+      <c r="C92" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>3</v>
+      </c>
+      <c r="B93">
+        <v>73100432</v>
+      </c>
+      <c r="C93" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>3</v>
+      </c>
+      <c r="B94">
+        <v>73529533</v>
+      </c>
+      <c r="C94" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>3</v>
+      </c>
+      <c r="B95">
+        <v>44195215</v>
+      </c>
+      <c r="C95" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>3</v>
+      </c>
+      <c r="B96">
+        <v>72405260</v>
+      </c>
+      <c r="C96" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>3</v>
+      </c>
+      <c r="B97">
+        <v>74276491</v>
+      </c>
+      <c r="C97" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>3</v>
+      </c>
+      <c r="B98">
+        <v>47868074</v>
+      </c>
+      <c r="C98" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>3</v>
+      </c>
+      <c r="B99">
+        <v>48101981</v>
+      </c>
+      <c r="C99" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>3</v>
+      </c>
+      <c r="B100">
+        <v>70600087</v>
+      </c>
+      <c r="C100" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>3</v>
+      </c>
+      <c r="B101">
+        <v>76008524</v>
+      </c>
+      <c r="C101" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>3</v>
+      </c>
+      <c r="B102">
+        <v>74092614</v>
+      </c>
+      <c r="C102" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>3</v>
+      </c>
+      <c r="B103">
+        <v>76580004</v>
+      </c>
+      <c r="C103" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -823,7 +2127,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -845,7 +2149,23 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
